--- a/SchedulingData/static5/pso/scheduling1_15.xlsx
+++ b/SchedulingData/static5/pso/scheduling1_15.xlsx
@@ -462,382 +462,382 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>70.5</v>
+        <v>89.52</v>
       </c>
       <c r="E2" t="n">
-        <v>27.08</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>90.2</v>
+        <v>47.56</v>
       </c>
       <c r="E3" t="n">
-        <v>24.66</v>
+        <v>25.944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>108.2</v>
+        <v>54.64</v>
       </c>
       <c r="E4" t="n">
-        <v>24.44</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>72.5</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>26.4</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>108.2</v>
+        <v>54.64</v>
       </c>
       <c r="D6" t="n">
-        <v>175.06</v>
+        <v>115.56</v>
       </c>
       <c r="E6" t="n">
-        <v>19.864</v>
+        <v>21.264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>145.7</v>
+        <v>70.28</v>
       </c>
       <c r="E7" t="n">
-        <v>20.24</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>47.56</v>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>107.58</v>
       </c>
       <c r="E8" t="n">
-        <v>26.48</v>
+        <v>23.032</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>115.84</v>
+        <v>72.5</v>
       </c>
       <c r="E9" t="n">
-        <v>22.216</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>145.7</v>
+        <v>70.28</v>
       </c>
       <c r="D10" t="n">
-        <v>188.68</v>
+        <v>137.34</v>
       </c>
       <c r="E10" t="n">
-        <v>17.072</v>
+        <v>21.576</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.52</v>
       </c>
       <c r="D11" t="n">
-        <v>36.48</v>
+        <v>132.32</v>
       </c>
       <c r="E11" t="n">
-        <v>27.052</v>
+        <v>23.048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>72.5</v>
+        <v>137.34</v>
       </c>
       <c r="D12" t="n">
-        <v>112.7</v>
+        <v>202.96</v>
       </c>
       <c r="E12" t="n">
-        <v>23.02</v>
+        <v>18.144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>115.84</v>
+        <v>115.56</v>
       </c>
       <c r="D13" t="n">
-        <v>184.6</v>
+        <v>152.88</v>
       </c>
       <c r="E13" t="n">
-        <v>18.94</v>
+        <v>18.672</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>132.32</v>
       </c>
       <c r="D14" t="n">
-        <v>58</v>
+        <v>176.72</v>
       </c>
       <c r="E14" t="n">
-        <v>24.9</v>
+        <v>19.748</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>58</v>
+        <v>107.58</v>
       </c>
       <c r="D15" t="n">
-        <v>108.12</v>
+        <v>167.98</v>
       </c>
       <c r="E15" t="n">
-        <v>21.028</v>
+        <v>18.612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36.48</v>
+        <v>202.96</v>
       </c>
       <c r="D16" t="n">
-        <v>111.16</v>
+        <v>262.86</v>
       </c>
       <c r="E16" t="n">
-        <v>23.204</v>
+        <v>14.764</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>112.7</v>
+        <v>57</v>
       </c>
       <c r="D17" t="n">
-        <v>150.3</v>
+        <v>121.8</v>
       </c>
       <c r="E17" t="n">
-        <v>19.9</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>111.16</v>
+        <v>176.72</v>
       </c>
       <c r="D18" t="n">
-        <v>167.28</v>
+        <v>221.82</v>
       </c>
       <c r="E18" t="n">
-        <v>18.732</v>
+        <v>16.368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>150.3</v>
+        <v>152.88</v>
       </c>
       <c r="D19" t="n">
-        <v>212.92</v>
+        <v>216.96</v>
       </c>
       <c r="E19" t="n">
-        <v>16.728</v>
+        <v>16.384</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>175.06</v>
+        <v>72.5</v>
       </c>
       <c r="D20" t="n">
-        <v>234.86</v>
+        <v>121.56</v>
       </c>
       <c r="E20" t="n">
-        <v>16.484</v>
+        <v>23.124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>184.6</v>
+        <v>167.98</v>
       </c>
       <c r="D21" t="n">
-        <v>226.76</v>
+        <v>222.88</v>
       </c>
       <c r="E21" t="n">
-        <v>16.344</v>
+        <v>15.252</v>
       </c>
     </row>
     <row r="22">
@@ -846,112 +846,112 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>212.92</v>
+        <v>121.56</v>
       </c>
       <c r="D22" t="n">
-        <v>272.52</v>
+        <v>197.36</v>
       </c>
       <c r="E22" t="n">
-        <v>13.368</v>
+        <v>19.644</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>108.12</v>
+        <v>222.88</v>
       </c>
       <c r="D23" t="n">
-        <v>158.64</v>
+        <v>272.64</v>
       </c>
       <c r="E23" t="n">
-        <v>17.596</v>
+        <v>12.396</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>226.76</v>
+        <v>216.96</v>
       </c>
       <c r="D24" t="n">
-        <v>280.78</v>
+        <v>259.12</v>
       </c>
       <c r="E24" t="n">
-        <v>13.572</v>
+        <v>13.788</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>234.86</v>
+        <v>221.82</v>
       </c>
       <c r="D25" t="n">
-        <v>314.86</v>
+        <v>299.24</v>
       </c>
       <c r="E25" t="n">
-        <v>13.064</v>
+        <v>13.196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>158.64</v>
+        <v>272.64</v>
       </c>
       <c r="D26" t="n">
-        <v>216.94</v>
+        <v>311.66</v>
       </c>
       <c r="E26" t="n">
-        <v>15.356</v>
+        <v>9.624000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>280.78</v>
+        <v>299.24</v>
       </c>
       <c r="D27" t="n">
-        <v>346.48</v>
+        <v>355.12</v>
       </c>
       <c r="E27" t="n">
-        <v>10.092</v>
+        <v>10.248</v>
       </c>
     </row>
     <row r="28">
@@ -960,17 +960,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>167.28</v>
+        <v>311.66</v>
       </c>
       <c r="D28" t="n">
-        <v>221.84</v>
+        <v>380.36</v>
       </c>
       <c r="E28" t="n">
-        <v>15.876</v>
+        <v>5.884</v>
       </c>
     </row>
     <row r="29">
@@ -979,17 +979,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>314.86</v>
+        <v>262.86</v>
       </c>
       <c r="D29" t="n">
-        <v>403.88</v>
+        <v>313.86</v>
       </c>
       <c r="E29" t="n">
-        <v>8.752000000000001</v>
+        <v>11.284</v>
       </c>
     </row>
     <row r="30">
@@ -998,93 +998,93 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>216.94</v>
+        <v>259.12</v>
       </c>
       <c r="D30" t="n">
-        <v>258.14</v>
+        <v>292.82</v>
       </c>
       <c r="E30" t="n">
-        <v>11.876</v>
+        <v>11.548</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>258.14</v>
+        <v>121.8</v>
       </c>
       <c r="D31" t="n">
-        <v>334.96</v>
+        <v>191.72</v>
       </c>
       <c r="E31" t="n">
-        <v>9.284000000000001</v>
+        <v>17.268</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>403.88</v>
+        <v>197.36</v>
       </c>
       <c r="D32" t="n">
-        <v>452.96</v>
+        <v>250.5</v>
       </c>
       <c r="E32" t="n">
-        <v>6.464</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>188.68</v>
+        <v>313.86</v>
       </c>
       <c r="D33" t="n">
-        <v>247.88</v>
+        <v>361.26</v>
       </c>
       <c r="E33" t="n">
-        <v>13.772</v>
+        <v>8.164</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>272.52</v>
+        <v>292.82</v>
       </c>
       <c r="D34" t="n">
-        <v>327.94</v>
+        <v>384.52</v>
       </c>
       <c r="E34" t="n">
-        <v>10.456</v>
+        <v>6.448</v>
       </c>
     </row>
     <row r="35">
@@ -1093,55 +1093,55 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>346.48</v>
+        <v>191.72</v>
       </c>
       <c r="D35" t="n">
-        <v>399.62</v>
+        <v>286.62</v>
       </c>
       <c r="E35" t="n">
-        <v>7.408</v>
+        <v>14.348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>247.88</v>
+        <v>250.5</v>
       </c>
       <c r="D36" t="n">
-        <v>306.68</v>
+        <v>312.8</v>
       </c>
       <c r="E36" t="n">
-        <v>10.032</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>334.96</v>
+        <v>312.8</v>
       </c>
       <c r="D37" t="n">
-        <v>387.36</v>
+        <v>353.78</v>
       </c>
       <c r="E37" t="n">
-        <v>6.164</v>
+        <v>10.872</v>
       </c>
     </row>
     <row r="38">
@@ -1150,17 +1150,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>399.62</v>
+        <v>286.62</v>
       </c>
       <c r="D38" t="n">
-        <v>493.04</v>
+        <v>339.4</v>
       </c>
       <c r="E38" t="n">
-        <v>3.656</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="39">
@@ -1169,55 +1169,55 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>306.68</v>
+        <v>355.12</v>
       </c>
       <c r="D39" t="n">
-        <v>372.46</v>
+        <v>439.3</v>
       </c>
       <c r="E39" t="n">
-        <v>7.064</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>372.46</v>
+        <v>339.4</v>
       </c>
       <c r="D40" t="n">
-        <v>436.94</v>
+        <v>393.12</v>
       </c>
       <c r="E40" t="n">
-        <v>3.216</v>
+        <v>7.428</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>327.94</v>
+        <v>384.52</v>
       </c>
       <c r="D41" t="n">
-        <v>399.4</v>
+        <v>445.02</v>
       </c>
       <c r="E41" t="n">
-        <v>6.4</v>
+        <v>3.028</v>
       </c>
     </row>
   </sheetData>
